--- a/score-service/src/test/resources/finalscore-153.xlsx
+++ b/score-service/src/test/resources/finalscore-153.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="13470" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,193 +12,188 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:D29"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+  <si>
+    <t>姓名</t>
+  </si>
   <si>
     <t xml:space="preserve">  学号</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>班级</t>
-  </si>
-  <si>
     <t>成绩</t>
   </si>
   <si>
+    <t>叶彬彬</t>
+  </si>
+  <si>
     <t>201508030301</t>
   </si>
   <si>
-    <t>叶彬彬</t>
-  </si>
-  <si>
-    <t>网络153</t>
+    <t>杨佳慧</t>
   </si>
   <si>
     <t>201508030302</t>
   </si>
   <si>
-    <t>杨佳慧</t>
+    <t>付玮琳</t>
   </si>
   <si>
     <t>201508030303</t>
   </si>
   <si>
-    <t>付玮琳</t>
+    <t>崔艳</t>
   </si>
   <si>
     <t>201508030304</t>
   </si>
   <si>
-    <t>崔艳</t>
+    <t>刘睬瑜</t>
   </si>
   <si>
     <t>201508030305</t>
   </si>
   <si>
-    <t>刘睬瑜</t>
+    <t>王俊艳</t>
   </si>
   <si>
     <t>201508030306</t>
   </si>
   <si>
-    <t>王俊艳</t>
+    <t>刘悦</t>
   </si>
   <si>
     <t>201508030307</t>
   </si>
   <si>
-    <t>刘悦</t>
+    <t>刘聪</t>
   </si>
   <si>
     <t>201508030308</t>
   </si>
   <si>
-    <t>刘聪</t>
+    <t>徐逸舟</t>
   </si>
   <si>
     <t>201508030309</t>
   </si>
   <si>
-    <t>徐逸舟</t>
+    <t>李震</t>
   </si>
   <si>
     <t>201508030310</t>
   </si>
   <si>
-    <t>李震</t>
+    <t>张石磊</t>
   </si>
   <si>
     <t>201508030311</t>
   </si>
   <si>
-    <t>张石磊</t>
+    <t>王克瑾</t>
   </si>
   <si>
     <t>201508030312</t>
   </si>
   <si>
-    <t>王克瑾</t>
+    <t>蔡松江</t>
   </si>
   <si>
     <t>201508030313</t>
   </si>
   <si>
-    <t>蔡松江</t>
+    <t>柴晓印</t>
   </si>
   <si>
     <t>201508030314</t>
   </si>
   <si>
-    <t>柴晓印</t>
+    <t>刘鹏鹏</t>
   </si>
   <si>
     <t>201508030316</t>
   </si>
   <si>
-    <t>刘鹏鹏</t>
+    <t>王建平</t>
   </si>
   <si>
     <t>201508030317</t>
   </si>
   <si>
-    <t>王建平</t>
+    <t>查阳</t>
   </si>
   <si>
     <t>201508030318</t>
   </si>
   <si>
-    <t>查阳</t>
+    <t>张雨洋</t>
   </si>
   <si>
     <t>201508030319</t>
   </si>
   <si>
-    <t>张雨洋</t>
+    <t>宋豪</t>
   </si>
   <si>
     <t>201508030320</t>
   </si>
   <si>
-    <t>宋豪</t>
+    <t>鄢钰新</t>
   </si>
   <si>
     <t>201508030321</t>
   </si>
   <si>
-    <t>鄢钰新</t>
+    <t>王钰栋</t>
   </si>
   <si>
     <t>201508030322</t>
   </si>
   <si>
-    <t>王钰栋</t>
+    <t>张涛</t>
   </si>
   <si>
     <t>201508030323</t>
   </si>
   <si>
-    <t>张涛</t>
+    <t>潘园</t>
   </si>
   <si>
     <t>201508030325</t>
   </si>
   <si>
-    <t>潘园</t>
+    <t>梁桂星</t>
   </si>
   <si>
     <t>201508030326</t>
   </si>
   <si>
-    <t>梁桂星</t>
+    <t>李思宇</t>
   </si>
   <si>
     <t>201508030327</t>
   </si>
   <si>
-    <t>李思宇</t>
+    <t>周同</t>
   </si>
   <si>
     <t>201508030328</t>
   </si>
   <si>
-    <t>周同</t>
+    <t>姚常龙</t>
   </si>
   <si>
     <t>201508030329</t>
   </si>
   <si>
-    <t>姚常龙</t>
+    <t>潘绍乾</t>
   </si>
   <si>
     <t>201508030330</t>
-  </si>
-  <si>
-    <t>潘绍乾</t>
   </si>
 </sst>
 </file>
@@ -206,10 +201,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -227,6 +222,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -234,6 +250,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -241,55 +312,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,7 +350,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,44 +359,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,13 +373,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,31 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,133 +535,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,11 +584,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,45 +611,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,9 +632,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,8 +644,38 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,145 +687,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -838,20 +833,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1181,365 +1176,278 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="B1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="14.25" spans="2:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="2:4">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:4">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" ht="14.25" spans="1:4">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:4">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" ht="14.25" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:4">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:4">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:4">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:4">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" ht="14.25" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:4">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" ht="14.25" spans="1:4">
-      <c r="A9" s="2" t="s">
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:4">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:4">
+      <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:4">
-      <c r="A11" s="2" t="s">
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:4">
+      <c r="B12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:4">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:4">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:4">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:4">
-      <c r="A14" s="2" t="s">
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:4">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:4">
+      <c r="B16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:4">
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" spans="1:4">
-      <c r="A17" s="2" t="s">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:4">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:4">
+      <c r="B19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" spans="1:4">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:4">
+      <c r="B20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" ht="14.25" spans="1:4">
-      <c r="A20" s="2" t="s">
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:4">
+      <c r="B21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" ht="14.25" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:4">
+      <c r="B22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" spans="1:4">
-      <c r="A22" s="2" t="s">
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:4">
+      <c r="B23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="C23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:4">
-      <c r="A23" s="8" t="s">
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:4">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" ht="14.25" spans="1:4">
-      <c r="A24" s="2" t="s">
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:4">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:4">
+      <c r="B26" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:4">
+      <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:4">
+      <c r="B28" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:4">
+      <c r="B29" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C29" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" ht="14.25" spans="1:4">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/score-service/src/test/resources/finalscore-153.xlsx
+++ b/score-service/src/test/resources/finalscore-153.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13470" windowHeight="6615"/>
+    <workbookView windowWidth="11265" windowHeight="3870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>姓名</t>
   </si>
@@ -25,7 +25,13 @@
     <t xml:space="preserve">  学号</t>
   </si>
   <si>
-    <t>成绩</t>
+    <t>考勤成绩</t>
+  </si>
+  <si>
+    <t>平时作业成绩</t>
+  </si>
+  <si>
+    <t>期末成绩</t>
   </si>
   <si>
     <t>叶彬彬</t>
@@ -201,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -221,7 +227,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -236,6 +242,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -243,24 +272,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,63 +309,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,15 +356,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,13 +379,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,25 +505,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,139 +559,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +592,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +626,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,6 +643,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,50 +679,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,10 +693,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -699,133 +705,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1176,280 +1182,342 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D29"/>
+  <dimension ref="B1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="2:4">
+    <row r="1" ht="14.25" spans="2:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="14.25" spans="2:4">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="2:6">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" ht="14.25" spans="2:4">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" ht="14.25" spans="2:6">
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:4">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" ht="14.25" spans="2:6">
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:4">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:6">
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" ht="14.25" spans="2:4">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" ht="14.25" spans="2:6">
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" ht="14.25" spans="2:4">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:4">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:6">
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:4">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" ht="14.25" spans="2:6">
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:4">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:6">
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:4">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" ht="14.25" spans="2:6">
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:4">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:6">
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:4">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" ht="14.25" spans="2:6">
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:4">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:6">
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" ht="14.25" spans="2:4">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" ht="14.25" spans="2:6">
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" ht="14.25" spans="2:4">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" ht="14.25" spans="2:6">
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:4">
+        <v>36</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:6">
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" ht="14.25" spans="2:4">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" ht="14.25" spans="2:6">
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="6"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:4">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:6">
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:4">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:6">
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:4">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:6">
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6"/>
-    </row>
-    <row r="23" ht="14.25" spans="2:4">
+        <v>46</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="14.25" spans="2:6">
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" ht="14.25" spans="2:4">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="14.25" spans="2:6">
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="25" ht="14.25" spans="2:4">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="14.25" spans="2:6">
       <c r="B25" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" ht="14.25" spans="2:4">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="2:6">
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" ht="14.25" spans="2:4">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" ht="14.25" spans="2:6">
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" ht="14.25" spans="2:4">
+        <v>56</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" ht="14.25" spans="2:6">
       <c r="B28" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" ht="14.25" spans="2:4">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" ht="14.25" spans="2:6">
       <c r="B29" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
